--- a/5/2/Colocaciones sector privado y público no financieros 2004 a 2021 - Trimestral.xlsx
+++ b/5/2/Colocaciones sector privado y público no financieros 2004 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Serie</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,10 +1360,21 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>157952</v>
+        <v>174090</v>
       </c>
       <c r="C70">
         <v>173506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>176505</v>
+      </c>
+      <c r="C71">
+        <v>176211</v>
       </c>
     </row>
   </sheetData>
